--- a/data/excel/v12StagingFlight.xlsx
+++ b/data/excel/v12StagingFlight.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\V12StagingB2C\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F553975-B6E9-49A6-B321-ADF2803E323C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PossitiveTestCases" sheetId="18" r:id="rId1"/>
@@ -22,26 +23,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Shubham Natkar</author>
   </authors>
   <commentList>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -70,12 +62,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Shubham Natkar</author>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -104,12 +96,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Shubham Natkar</author>
   </authors>
   <commentList>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -133,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0">
+    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -162,12 +154,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Shubham Natkar</author>
   </authors>
   <commentList>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -191,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0">
+    <comment ref="AU1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1020,7 +1012,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1488,11 +1480,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AW20" sqref="AW20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2428,54 +2420,54 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
+  <dataValidations disablePrompts="1" count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"LogIn,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F5" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q5 V2:X5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q5 V2:X5" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S5" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Economy,Premium Economy,Business,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R5" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"USD,BHD,AED,SAR,INR,OMR,ZAR,TRY,QAR,EUR,IQD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T5" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:P5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:P5" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y5" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"Refundable,Non-Refundable,All"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY5" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"MasterCard,VisaCard"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ2:AZ5" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="E3" r:id="rId4"/>
-    <hyperlink ref="D4" r:id="rId5"/>
-    <hyperlink ref="E4" r:id="rId6"/>
-    <hyperlink ref="D5" r:id="rId7"/>
-    <hyperlink ref="E5" r:id="rId8"/>
-    <hyperlink ref="AD5" r:id="rId9"/>
-    <hyperlink ref="AD4" r:id="rId10"/>
-    <hyperlink ref="AD3" r:id="rId11"/>
-    <hyperlink ref="AD2" r:id="rId12"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AD5" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AD4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="AD3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="AD2" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
@@ -2484,7 +2476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5061,80 +5053,80 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations disablePrompts="1" count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I14" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BB14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB2:BB14" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA2:BA14" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"MasterCard,VisaCard"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA14" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"Refundable,Non-Refundable,All"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V14" xr:uid="{00000000-0002-0000-0100-000004000000}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T14" xr:uid="{00000000-0002-0000-0100-000005000000}">
       <formula1>"USD,BHD,AED,SAR,INR,OMR,ZAR,TRY,QAR,EUR,IQD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U14" xr:uid="{00000000-0002-0000-0100-000006000000}">
       <formula1>"Economy,Premium Economy,Business,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S14 X2:Z14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S14 X2:Z14" xr:uid="{00000000-0002-0000-0100-000007000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H14" xr:uid="{00000000-0002-0000-0100-000008000000}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C14" xr:uid="{00000000-0002-0000-0100-000009000000}">
       <formula1>"LogIn,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:R14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:R14" xr:uid="{00000000-0002-0000-0100-00000A000000}">
       <formula1>"0,1,2,3,4,5,6,7,8,9"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="AF2" r:id="rId3"/>
-    <hyperlink ref="F3" r:id="rId4"/>
-    <hyperlink ref="G3" r:id="rId5"/>
-    <hyperlink ref="AF3" r:id="rId6"/>
-    <hyperlink ref="F5" r:id="rId7"/>
-    <hyperlink ref="G5" r:id="rId8"/>
-    <hyperlink ref="AF5" r:id="rId9"/>
-    <hyperlink ref="F7" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="AF7" r:id="rId12"/>
-    <hyperlink ref="F8" r:id="rId13"/>
-    <hyperlink ref="G8" r:id="rId14"/>
-    <hyperlink ref="AF8" r:id="rId15"/>
-    <hyperlink ref="F10" r:id="rId16"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="AF10" r:id="rId18"/>
-    <hyperlink ref="F9" r:id="rId19"/>
-    <hyperlink ref="G9" r:id="rId20"/>
-    <hyperlink ref="AF9" r:id="rId21"/>
-    <hyperlink ref="F6" r:id="rId22"/>
-    <hyperlink ref="G6" r:id="rId23" display="Admin@123"/>
-    <hyperlink ref="AF6" r:id="rId24"/>
-    <hyperlink ref="F11" r:id="rId25"/>
-    <hyperlink ref="G11" r:id="rId26"/>
-    <hyperlink ref="AF11" r:id="rId27"/>
-    <hyperlink ref="F12" r:id="rId28"/>
-    <hyperlink ref="G12" r:id="rId29"/>
-    <hyperlink ref="AF12" r:id="rId30"/>
-    <hyperlink ref="F13" r:id="rId31"/>
-    <hyperlink ref="G13" r:id="rId32"/>
-    <hyperlink ref="AF13" r:id="rId33"/>
-    <hyperlink ref="F14" r:id="rId34"/>
-    <hyperlink ref="G14" r:id="rId35"/>
-    <hyperlink ref="AF14" r:id="rId36"/>
-    <hyperlink ref="F4" r:id="rId37"/>
-    <hyperlink ref="G4" r:id="rId38"/>
-    <hyperlink ref="AF4" r:id="rId39"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="AF2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="G3" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="AF3" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="G5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="AF5" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="F7" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="AF7" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="F8" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="G8" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="AF8" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="F10" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="AF10" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="F9" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="G9" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="AF9" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="F6" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="G6" r:id="rId23" display="Admin@123" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="AF6" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="F11" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="G11" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="AF11" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="F12" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="G12" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="AF12" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="F13" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="G13" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="AF13" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="F14" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="G14" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="AF14" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="F4" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="G4" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="AF4" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId40"/>
@@ -5142,7 +5134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CE28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12265,131 +12257,131 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B28" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J28 AD2:AD28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J28 AD2:AD28" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY28" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2:BX28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2:BX28" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"MasterCard,VisaCard"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2:AX28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2:AX28" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>"Refundable,Non-Refundable,All"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:S8 AM2:AO28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:S8 AM2:AO28" xr:uid="{00000000-0002-0000-0200-000005000000}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W28 AU2:AU28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W28 AU2:AU28" xr:uid="{00000000-0002-0000-0200-000006000000}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U28 AT2:AT28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U28 AT2:AT28" xr:uid="{00000000-0002-0000-0200-000007000000}">
       <formula1>"USD,BHD,AED,SAR,INR,OMR,ZAR,TRY,QAR,EUR,IQD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V28 AQ2:AQ28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V28 AQ2:AQ28" xr:uid="{00000000-0002-0000-0200-000008000000}">
       <formula1>"Economy,Premium Economy,Business,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T28 AR2:AS28 Y2:AB28 AI2:AI28 AL2:AL28 AP2:AP28 AW2:AW28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T28 AR2:AS28 Y2:AB28 AI2:AI28 AL2:AL28 AP2:AP28 AW2:AW28" xr:uid="{00000000-0002-0000-0200-000009000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I28 AC2:AC28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I28 AC2:AC28" xr:uid="{00000000-0002-0000-0200-00000A000000}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D28" xr:uid="{00000000-0002-0000-0200-00000B000000}">
       <formula1>"LogIn,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q9:S28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q9:S28" xr:uid="{00000000-0002-0000-0200-00000C000000}">
       <formula1>"0,1,2,3,4,5,6,7,8,9"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY28" xr:uid="{00000000-0002-0000-0200-00000D000000}">
       <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="H2" r:id="rId2"/>
-    <hyperlink ref="BC2" r:id="rId3"/>
-    <hyperlink ref="G3" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="G5" r:id="rId6"/>
-    <hyperlink ref="G6" r:id="rId7"/>
-    <hyperlink ref="H3" r:id="rId8"/>
-    <hyperlink ref="H4" r:id="rId9"/>
-    <hyperlink ref="H5" r:id="rId10"/>
-    <hyperlink ref="H6" r:id="rId11"/>
-    <hyperlink ref="BC3" r:id="rId12"/>
-    <hyperlink ref="BC4" r:id="rId13"/>
-    <hyperlink ref="BC5" r:id="rId14"/>
-    <hyperlink ref="BC6" r:id="rId15"/>
-    <hyperlink ref="G7" r:id="rId16"/>
-    <hyperlink ref="H7" r:id="rId17"/>
-    <hyperlink ref="BC7" r:id="rId18"/>
-    <hyperlink ref="G8" r:id="rId19"/>
-    <hyperlink ref="H8" r:id="rId20"/>
-    <hyperlink ref="BC8" r:id="rId21"/>
-    <hyperlink ref="G9" r:id="rId22"/>
-    <hyperlink ref="H9" r:id="rId23"/>
-    <hyperlink ref="BC9" r:id="rId24"/>
-    <hyperlink ref="G10" r:id="rId25"/>
-    <hyperlink ref="H10" r:id="rId26"/>
-    <hyperlink ref="BC10" r:id="rId27"/>
-    <hyperlink ref="G12" r:id="rId28"/>
-    <hyperlink ref="H12" r:id="rId29"/>
-    <hyperlink ref="BC12" r:id="rId30"/>
-    <hyperlink ref="G14" r:id="rId31"/>
-    <hyperlink ref="H14" r:id="rId32"/>
-    <hyperlink ref="BC14" r:id="rId33"/>
-    <hyperlink ref="G15" r:id="rId34"/>
-    <hyperlink ref="H15" r:id="rId35"/>
-    <hyperlink ref="BC15" r:id="rId36"/>
-    <hyperlink ref="G17" r:id="rId37"/>
-    <hyperlink ref="H17" r:id="rId38"/>
-    <hyperlink ref="BC17" r:id="rId39"/>
-    <hyperlink ref="G16" r:id="rId40"/>
-    <hyperlink ref="H16" r:id="rId41"/>
-    <hyperlink ref="BC16" r:id="rId42"/>
-    <hyperlink ref="G13" r:id="rId43"/>
-    <hyperlink ref="H13" r:id="rId44" display="Admin@123"/>
-    <hyperlink ref="BC13" r:id="rId45"/>
-    <hyperlink ref="G18" r:id="rId46"/>
-    <hyperlink ref="H18" r:id="rId47"/>
-    <hyperlink ref="BC18" r:id="rId48"/>
-    <hyperlink ref="G19" r:id="rId49"/>
-    <hyperlink ref="H19" r:id="rId50"/>
-    <hyperlink ref="BC19" r:id="rId51"/>
-    <hyperlink ref="G20" r:id="rId52"/>
-    <hyperlink ref="H20" r:id="rId53"/>
-    <hyperlink ref="BC20" r:id="rId54"/>
-    <hyperlink ref="G21" r:id="rId55"/>
-    <hyperlink ref="H21" r:id="rId56"/>
-    <hyperlink ref="BC21" r:id="rId57"/>
-    <hyperlink ref="G11" r:id="rId58"/>
-    <hyperlink ref="H11" r:id="rId59"/>
-    <hyperlink ref="BC11" r:id="rId60"/>
-    <hyperlink ref="G22" r:id="rId61"/>
-    <hyperlink ref="H22" r:id="rId62"/>
-    <hyperlink ref="BC22" r:id="rId63"/>
-    <hyperlink ref="G23" r:id="rId64"/>
-    <hyperlink ref="H23" r:id="rId65"/>
-    <hyperlink ref="BC23" r:id="rId66"/>
-    <hyperlink ref="G24" r:id="rId67"/>
-    <hyperlink ref="H24" r:id="rId68"/>
-    <hyperlink ref="BC24" r:id="rId69"/>
-    <hyperlink ref="G25" r:id="rId70"/>
-    <hyperlink ref="H25" r:id="rId71"/>
-    <hyperlink ref="BC25" r:id="rId72"/>
-    <hyperlink ref="G26" r:id="rId73"/>
-    <hyperlink ref="H26" r:id="rId74"/>
-    <hyperlink ref="BC26" r:id="rId75"/>
-    <hyperlink ref="G27" r:id="rId76"/>
-    <hyperlink ref="H27" r:id="rId77"/>
-    <hyperlink ref="BC27" r:id="rId78"/>
-    <hyperlink ref="G28" r:id="rId79"/>
-    <hyperlink ref="H28" r:id="rId80"/>
-    <hyperlink ref="BC28" r:id="rId81"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="BC2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="G5" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="G6" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="H3" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="H4" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="H5" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="H6" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="BC3" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="BC4" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="BC5" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="BC6" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="G7" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="H7" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="BC7" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="G8" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="H8" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="BC8" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="G9" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="H9" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="BC9" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="G10" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="H10" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="BC10" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="G12" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="H12" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="BC12" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="G14" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="H14" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="BC14" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="G15" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="H15" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="BC15" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="G17" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="H17" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="BC17" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="G16" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="H16" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="BC16" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="G13" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="H13" r:id="rId44" display="Admin@123" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="BC13" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="G18" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="H18" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="BC18" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="G19" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="H19" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="BC19" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="G20" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="H20" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="BC20" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="G21" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="H21" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="BC21" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="G11" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="H11" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="BC11" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="G22" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="H22" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
+    <hyperlink ref="BC22" r:id="rId63" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
+    <hyperlink ref="G23" r:id="rId64" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
+    <hyperlink ref="H23" r:id="rId65" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
+    <hyperlink ref="BC23" r:id="rId66" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
+    <hyperlink ref="G24" r:id="rId67" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
+    <hyperlink ref="H24" r:id="rId68" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
+    <hyperlink ref="BC24" r:id="rId69" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
+    <hyperlink ref="G25" r:id="rId70" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
+    <hyperlink ref="H25" r:id="rId71" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
+    <hyperlink ref="BC25" r:id="rId72" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
+    <hyperlink ref="G26" r:id="rId73" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
+    <hyperlink ref="H26" r:id="rId74" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
+    <hyperlink ref="BC26" r:id="rId75" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
+    <hyperlink ref="G27" r:id="rId76" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
+    <hyperlink ref="H27" r:id="rId77" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
+    <hyperlink ref="BC27" r:id="rId78" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
+    <hyperlink ref="G28" r:id="rId79" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
+    <hyperlink ref="H28" r:id="rId80" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
+    <hyperlink ref="BC28" r:id="rId81" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId82"/>
@@ -12398,7 +12390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CE8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14500,71 +14492,71 @@
     </row>
   </sheetData>
   <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY2:AY8" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Air India,Vistara,SriLankan,Saudi Arabian,Emirates,Gulf Air,Etihad Airways,Singapore Airl,Qatar Airways"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"LogIn,Guest"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I8 AC2:AC8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I8 AC2:AC8" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"OneWay,RoundTrip,MultiCity"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T8 AR2:AS8 Y2:AB8 AI2:AI8 AL2:AL8 AP2:AP8 AW2:AW8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T8 AR2:AS8 Y2:AB8 AI2:AI8 AL2:AL8 AP2:AP8 AW2:AW8" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V8 AQ2:AQ8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V8 AQ2:AQ8" xr:uid="{00000000-0002-0000-0300-000004000000}">
       <formula1>"Economy,Premium Economy,Business,First Class"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U8 AT2:AT8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U8 AT2:AT8" xr:uid="{00000000-0002-0000-0300-000005000000}">
       <formula1>"USD,BHD,AED,SAR,INR,OMR,ZAR,TRY,QAR,EUR,IQD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W8 AU2:AU8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W8 AU2:AU8" xr:uid="{00000000-0002-0000-0300-000006000000}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AO8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AO8" xr:uid="{00000000-0002-0000-0300-000007000000}">
       <formula1>"0,1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2:AX8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2:AX8" xr:uid="{00000000-0002-0000-0300-000008000000}">
       <formula1>"Refundable,Non-Refundable,All"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2:BX8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2:BX8" xr:uid="{00000000-0002-0000-0300-000009000000}">
       <formula1>"MasterCard,VisaCard"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BY2:BY8" xr:uid="{00000000-0002-0000-0300-00000A000000}">
       <formula1>"5123456789012346,4111111111111111"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J8 AD2:AD8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J8 AD2:AD8" xr:uid="{00000000-0002-0000-0300-00000B000000}">
       <formula1>"Domestic,International"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8" xr:uid="{00000000-0002-0000-0300-00000C000000}">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:S8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:S8" xr:uid="{00000000-0002-0000-0300-00000D000000}">
       <formula1>"0,1,2,3,4,5,6,7,8,9"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="H2" r:id="rId2"/>
-    <hyperlink ref="BC2" r:id="rId3"/>
-    <hyperlink ref="G3" r:id="rId4"/>
-    <hyperlink ref="H3" r:id="rId5"/>
-    <hyperlink ref="BC3" r:id="rId6"/>
-    <hyperlink ref="G4" r:id="rId7"/>
-    <hyperlink ref="H4" r:id="rId8"/>
-    <hyperlink ref="BC4" r:id="rId9"/>
-    <hyperlink ref="G5" r:id="rId10"/>
-    <hyperlink ref="H5" r:id="rId11"/>
-    <hyperlink ref="BC5" r:id="rId12"/>
-    <hyperlink ref="G6" r:id="rId13"/>
-    <hyperlink ref="H6" r:id="rId14"/>
-    <hyperlink ref="BC6" r:id="rId15"/>
-    <hyperlink ref="G7" r:id="rId16"/>
-    <hyperlink ref="H7" r:id="rId17"/>
-    <hyperlink ref="BC7" r:id="rId18"/>
-    <hyperlink ref="G8" r:id="rId19"/>
-    <hyperlink ref="H8" r:id="rId20"/>
-    <hyperlink ref="BC8" r:id="rId21"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="BC2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="H3" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="BC3" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="G4" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="H4" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="BC4" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="G5" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="H5" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="BC5" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="G6" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="H6" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="BC6" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="G7" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="H7" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="BC7" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="G8" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="H8" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="BC8" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId22"/>
